--- a/example/demo_example.xlsx
+++ b/example/demo_example.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eelapp\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZTP Dist\ztptool-v1.0.11alpha-win\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740DE364-2CBD-4A6A-BFD2-415FC97C83BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62031B0F-1213-40B1-A947-9B2BA1BF2819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24855" yWindow="2670" windowWidth="20415" windowHeight="10485" xr2:uid="{16558AD3-E1FF-42D8-9AD6-28746533D80B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{16558AD3-E1FF-42D8-9AD6-28746533D80B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Devices" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -513,7 +513,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
